--- a/detail_interests.xlsx
+++ b/detail_interests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C830BD8-028B-4AAE-B836-B04AAE12BE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC5288E-3AA1-499A-B9A3-61E45BC4337D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>이름</t>
   </si>
@@ -386,6 +386,10 @@
   </si>
   <si>
     <t>eunhak@snu.ac.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1480,6 +1484,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/detail_interests.xlsx
+++ b/detail_interests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC5288E-3AA1-499A-B9A3-61E45BC4337D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BF71F3-CC5E-48BB-8A46-2FF678948E3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="122">
   <si>
     <t>이름</t>
   </si>
@@ -390,6 +390,10 @@
   </si>
   <si>
     <t>최재원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1489,6 +1493,11 @@
         <v>120</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/detail_interests.xlsx
+++ b/detail_interests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BF71F3-CC5E-48BB-8A46-2FF678948E3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DECB6-7494-4B7B-90B5-3056BB1246EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="123">
   <si>
     <t>이름</t>
   </si>
@@ -394,6 +394,10 @@
   </si>
   <si>
     <t>신용우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신호석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1498,6 +1502,11 @@
         <v>121</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/detail_interests.xlsx
+++ b/detail_interests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DECB6-7494-4B7B-90B5-3056BB1246EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9BC60-8C14-45D1-8D6E-0AEB771369D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="124">
   <si>
     <t>이름</t>
   </si>
@@ -398,6 +398,10 @@
   </si>
   <si>
     <t>신호석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박사과정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +741,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1492,17 +1496,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>122</v>
       </c>

--- a/detail_interests.xlsx
+++ b/detail_interests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9BC60-8C14-45D1-8D6E-0AEB771369D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC4ADE-6AAA-4095-8B4C-0699406E1A6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <t>이름</t>
   </si>
@@ -393,15 +393,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>신호석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 (영어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고승영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seung-Young Kho</t>
+  </si>
+  <si>
+    <t>sykho@snu.ac.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토목공학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept, of Civil Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California, Berkeley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transportation Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dong-Kyu Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서정욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신호철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤현수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>신용우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신호석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박사과정</t>
+    <t>박성연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,791 +797,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="45.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2">
+        <v>1980</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2">
+        <v>1982</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3">
+        <v>1999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3">
+        <v>2001</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="T3" t="s">
         <v>29</v>
       </c>
-      <c r="J2">
-        <v>1999</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="U3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>2009</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4">
+        <v>2011</v>
+      </c>
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T4" t="s">
         <v>29</v>
       </c>
-      <c r="O2">
-        <v>2001</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="U4">
+        <v>2020</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="T2">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="K5">
+        <v>2016</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5">
+        <v>2021</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="F6">
+        <v>2021</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6">
+        <v>2016</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6">
+        <v>2021</v>
+      </c>
+      <c r="V6" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2016</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>2016</v>
+      </c>
+      <c r="V7" t="s">
+        <v>97</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>2017</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>2017</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>2018</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10">
+        <v>2018</v>
+      </c>
+      <c r="V10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>2018</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>2018</v>
+      </c>
+      <c r="V11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>2018</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>2018</v>
+      </c>
+      <c r="V12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>2019</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13">
+        <v>2021</v>
+      </c>
+      <c r="V13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>2019</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15">
+        <v>2019</v>
+      </c>
+      <c r="V15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19">
         <v>2020</v>
       </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3">
-        <v>2009</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
         <v>29</v>
       </c>
-      <c r="O3">
-        <v>2011</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3">
+      <c r="K19">
         <v>2020</v>
       </c>
-      <c r="U3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
+      <c r="V19" t="s">
+        <v>93</v>
+      </c>
+      <c r="W19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>2020</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>2020</v>
+      </c>
+      <c r="V21" t="s">
+        <v>61</v>
+      </c>
+      <c r="W21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>2016</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4">
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22">
+        <v>2020</v>
+      </c>
+      <c r="V22" t="s">
+        <v>111</v>
+      </c>
+      <c r="W22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="U4" t="s">
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24">
+        <v>2019</v>
+      </c>
+      <c r="V24" t="s">
         <v>51</v>
       </c>
-      <c r="V4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>2021</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5">
-        <v>2016</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5">
-        <v>2021</v>
-      </c>
-      <c r="U5" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>2016</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>2016</v>
-      </c>
-      <c r="U6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>2017</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7">
-        <v>2017</v>
-      </c>
-      <c r="U7" t="s">
-        <v>75</v>
-      </c>
-      <c r="V7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2018</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>2018</v>
-      </c>
-      <c r="U8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2018</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9">
-        <v>2018</v>
-      </c>
-      <c r="U9" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>2018</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10">
-        <v>2018</v>
-      </c>
-      <c r="U10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2021</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11">
-        <v>2019</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11">
-        <v>2021</v>
-      </c>
-      <c r="U11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2019</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12">
-        <v>2019</v>
-      </c>
-      <c r="U12" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13">
-        <v>2020</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13">
-        <v>2020</v>
-      </c>
-      <c r="U13" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14">
-        <v>2020</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14">
-        <v>2020</v>
-      </c>
-      <c r="U14" t="s">
-        <v>61</v>
-      </c>
-      <c r="V14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15">
-        <v>2021</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15">
-        <v>2020</v>
-      </c>
-      <c r="U15" t="s">
-        <v>111</v>
-      </c>
-      <c r="V15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16">
-        <v>2021</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16">
-        <v>2019</v>
-      </c>
-      <c r="U16" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="W24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>122</v>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{135A88F6-B7FF-4D46-B503-44EA1026E985}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6BAA538B-AE5C-4960-9B09-1F5030065D16}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4777F08E-61ED-4608-897F-61B381741262}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{98E14224-9F4C-4AD3-89FB-68E3B634DA3C}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{135A88F6-B7FF-4D46-B503-44EA1026E985}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{6BAA538B-AE5C-4960-9B09-1F5030065D16}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{4777F08E-61ED-4608-897F-61B381741262}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{98E14224-9F4C-4AD3-89FB-68E3B634DA3C}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{934F7BA5-CA63-48DD-8C43-C67D7F201C7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>